--- a/medicine/Handicap/T4,_un_médecin_sous_le_nazisme/T4,_un_médecin_sous_le_nazisme.xlsx
+++ b/medicine/Handicap/T4,_un_médecin_sous_le_nazisme/T4,_un_médecin_sous_le_nazisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T4,_un_m%C3%A9decin_sous_le_nazisme</t>
+          <t>T4,_un_médecin_sous_le_nazisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">T4, un médecin sous le nazisme, est un film documentaire de Catherine Bernstein consacré à l'Aktion T4 à travers l'action du neurologue Julius Hallervorden.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T4,_un_m%C3%A9decin_sous_le_nazisme</t>
+          <t>T4,_un_médecin_sous_le_nazisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le documentaire présente le programme nazi Aktion T4 visant à l'élimination d'handicapés mentaux ou physiques.
-Il suit la carrière de Julius Hallervorden, neurologue qui utilisa le programme pour ses propres recherches. Le médecin a récupéré 690 cerveaux de victimes pour ses recherches sur les pathologies mentales[1].
-Après la guerre, Julius Hallervorden ne fut pas inquiété. Il reçut en 1956 l'Ordre du Mérite de la République fédérale d'Allemagne[2].
+Il suit la carrière de Julius Hallervorden, neurologue qui utilisa le programme pour ses propres recherches. Le médecin a récupéré 690 cerveaux de victimes pour ses recherches sur les pathologies mentales.
+Après la guerre, Julius Hallervorden ne fut pas inquiété. Il reçut en 1956 l'Ordre du Mérite de la République fédérale d'Allemagne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T4,_un_m%C3%A9decin_sous_le_nazisme</t>
+          <t>T4,_un_médecin_sous_le_nazisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix du public au Festival des créations télévisuelles de Luchon en 2016[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix du public au Festival des créations télévisuelles de Luchon en 2016.</t>
         </is>
       </c>
     </row>
